--- a/data/trans_orig/P78C2_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P78C2_2023-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD839F7B-C0E7-46C2-B80C-1A18521277F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{67F1D737-BC2D-4F29-BCF4-4F40C6BC175F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{834567E4-5D5C-4726-8691-C12348282C70}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{F9C72F5E-0889-4DCD-B12C-6BE22DBF098D}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -71,61 +71,61 @@
     <t>Sí</t>
   </si>
   <si>
-    <t>55,39%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>44,36%</t>
+    <t>52,92%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>88,36%</t>
+  </si>
+  <si>
+    <t>44,24%</t>
   </si>
   <si>
     <t>27,0%</t>
   </si>
   <si>
-    <t>65,24%</t>
-  </si>
-  <si>
-    <t>48,28%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>67,92%</t>
+    <t>65,14%</t>
+  </si>
+  <si>
+    <t>47,33%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>66,5%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>44,61%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>82,41%</t>
-  </si>
-  <si>
-    <t>55,64%</t>
-  </si>
-  <si>
-    <t>34,76%</t>
+    <t>47,08%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>85,26%</t>
+  </si>
+  <si>
+    <t>55,76%</t>
+  </si>
+  <si>
+    <t>34,86%</t>
   </si>
   <si>
     <t>73,0%</t>
   </si>
   <si>
-    <t>51,72%</t>
-  </si>
-  <si>
-    <t>32,08%</t>
-  </si>
-  <si>
-    <t>68,97%</t>
+    <t>52,67%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
+  </si>
+  <si>
+    <t>69,51%</t>
   </si>
   <si>
     <t>100%</t>
@@ -134,163 +134,163 @@
     <t>Secundarios</t>
   </si>
   <si>
-    <t>81,63%</t>
-  </si>
-  <si>
-    <t>65,12%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>69,83%</t>
-  </si>
-  <si>
-    <t>48,02%</t>
-  </si>
-  <si>
-    <t>84,98%</t>
-  </si>
-  <si>
-    <t>74,95%</t>
-  </si>
-  <si>
-    <t>61,26%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>34,88%</t>
-  </si>
-  <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>51,98%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>38,74%</t>
+    <t>80,52%</t>
+  </si>
+  <si>
+    <t>63,48%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>64,6%</t>
+  </si>
+  <si>
+    <t>41,99%</t>
+  </si>
+  <si>
+    <t>81,72%</t>
+  </si>
+  <si>
+    <t>71,41%</t>
+  </si>
+  <si>
+    <t>54,58%</t>
+  </si>
+  <si>
+    <t>83,12%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>36,52%</t>
+  </si>
+  <si>
+    <t>35,4%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>58,01%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>45,42%</t>
   </si>
   <si>
     <t>Universitarios</t>
   </si>
   <si>
-    <t>72,64%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
+    <t>72,36%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
   </si>
   <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>77,32%</t>
-  </si>
-  <si>
-    <t>86,26%</t>
-  </si>
-  <si>
-    <t>45,21%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>74,68%</t>
+  </si>
+  <si>
+    <t>85,02%</t>
+  </si>
+  <si>
+    <t>44,16%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>54,79%</t>
-  </si>
-  <si>
-    <t>76,36%</t>
-  </si>
-  <si>
-    <t>61,33%</t>
-  </si>
-  <si>
-    <t>87,38%</t>
-  </si>
-  <si>
-    <t>66,58%</t>
-  </si>
-  <si>
-    <t>52,95%</t>
-  </si>
-  <si>
-    <t>77,58%</t>
-  </si>
-  <si>
-    <t>70,69%</t>
-  </si>
-  <si>
-    <t>58,58%</t>
-  </si>
-  <si>
-    <t>78,68%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>38,67%</t>
-  </si>
-  <si>
-    <t>33,42%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>47,05%</t>
-  </si>
-  <si>
-    <t>29,31%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>41,42%</t>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>55,84%</t>
+  </si>
+  <si>
+    <t>74,92%</t>
+  </si>
+  <si>
+    <t>59,12%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
+  </si>
+  <si>
+    <t>62,61%</t>
+  </si>
+  <si>
+    <t>46,81%</t>
+  </si>
+  <si>
+    <t>75,1%</t>
+  </si>
+  <si>
+    <t>67,76%</t>
+  </si>
+  <si>
+    <t>53,7%</t>
+  </si>
+  <si>
+    <t>76,69%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>40,88%</t>
+  </si>
+  <si>
+    <t>37,39%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>53,19%</t>
+  </si>
+  <si>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>46,3%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -705,7 +705,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EE9CD6A-E830-40BA-BE42-18E6247D31E2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFC8E177-C985-4BF6-A080-4461DD4D70B4}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -826,7 +826,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="7">
-        <v>4884</v>
+        <v>4344</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -841,7 +841,7 @@
         <v>16</v>
       </c>
       <c r="I4" s="7">
-        <v>7084</v>
+        <v>6578</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -856,7 +856,7 @@
         <v>21</v>
       </c>
       <c r="N4" s="7">
-        <v>11968</v>
+        <v>10921</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -877,7 +877,7 @@
         <v>7</v>
       </c>
       <c r="D5" s="7">
-        <v>3933</v>
+        <v>3865</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -892,7 +892,7 @@
         <v>12</v>
       </c>
       <c r="I5" s="7">
-        <v>8886</v>
+        <v>8289</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -907,7 +907,7 @@
         <v>19</v>
       </c>
       <c r="N5" s="7">
-        <v>12819</v>
+        <v>12154</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -928,7 +928,7 @@
         <v>12</v>
       </c>
       <c r="D6" s="7">
-        <v>8817</v>
+        <v>8209</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -943,7 +943,7 @@
         <v>28</v>
       </c>
       <c r="I6" s="7">
-        <v>15970</v>
+        <v>14867</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -958,7 +958,7 @@
         <v>40</v>
       </c>
       <c r="N6" s="7">
-        <v>24787</v>
+        <v>23075</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -981,7 +981,7 @@
         <v>32</v>
       </c>
       <c r="D7" s="7">
-        <v>31578</v>
+        <v>27801</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -996,7 +996,7 @@
         <v>43</v>
       </c>
       <c r="I7" s="7">
-        <v>35202</v>
+        <v>29841</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1011,7 +1011,7 @@
         <v>75</v>
       </c>
       <c r="N7" s="7">
-        <v>66780</v>
+        <v>57642</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1032,7 +1032,7 @@
         <v>6</v>
       </c>
       <c r="D8" s="7">
-        <v>7104</v>
+        <v>6726</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1047,7 +1047,7 @@
         <v>13</v>
       </c>
       <c r="I8" s="7">
-        <v>15212</v>
+        <v>16350</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1062,7 +1062,7 @@
         <v>19</v>
       </c>
       <c r="N8" s="7">
-        <v>22316</v>
+        <v>23076</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1083,7 +1083,7 @@
         <v>38</v>
       </c>
       <c r="D9" s="7">
-        <v>38682</v>
+        <v>34527</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1098,7 +1098,7 @@
         <v>56</v>
       </c>
       <c r="I9" s="7">
-        <v>50414</v>
+        <v>46191</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1113,7 +1113,7 @@
         <v>94</v>
       </c>
       <c r="N9" s="7">
-        <v>89096</v>
+        <v>80718</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1136,7 +1136,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="7">
-        <v>3702</v>
+        <v>3588</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1151,7 +1151,7 @@
         <v>7</v>
       </c>
       <c r="I10" s="7">
-        <v>6049</v>
+        <v>5102</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1166,7 +1166,7 @@
         <v>10</v>
       </c>
       <c r="N10" s="7">
-        <v>9750</v>
+        <v>8690</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>56</v>
@@ -1187,7 +1187,7 @@
         <v>2</v>
       </c>
       <c r="D11" s="7">
-        <v>1394</v>
+        <v>1370</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>59</v>
@@ -1202,7 +1202,7 @@
         <v>1</v>
       </c>
       <c r="I11" s="7">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>62</v>
@@ -1217,7 +1217,7 @@
         <v>3</v>
       </c>
       <c r="N11" s="7">
-        <v>1554</v>
+        <v>1531</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>64</v>
@@ -1238,7 +1238,7 @@
         <v>5</v>
       </c>
       <c r="D12" s="7">
-        <v>5096</v>
+        <v>4958</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1253,7 +1253,7 @@
         <v>8</v>
       </c>
       <c r="I12" s="7">
-        <v>6208</v>
+        <v>5263</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1268,7 +1268,7 @@
         <v>13</v>
       </c>
       <c r="N12" s="7">
-        <v>11304</v>
+        <v>10221</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1291,7 +1291,7 @@
         <v>40</v>
       </c>
       <c r="D13" s="7">
-        <v>40164</v>
+        <v>35733</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>67</v>
@@ -1306,7 +1306,7 @@
         <v>66</v>
       </c>
       <c r="I13" s="7">
-        <v>48334</v>
+        <v>41521</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>70</v>
@@ -1321,7 +1321,7 @@
         <v>106</v>
       </c>
       <c r="N13" s="7">
-        <v>88498</v>
+        <v>77254</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>73</v>
@@ -1342,7 +1342,7 @@
         <v>15</v>
       </c>
       <c r="D14" s="7">
-        <v>12431</v>
+        <v>11960</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>76</v>
@@ -1357,7 +1357,7 @@
         <v>26</v>
       </c>
       <c r="I14" s="7">
-        <v>24258</v>
+        <v>24800</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>79</v>
@@ -1372,7 +1372,7 @@
         <v>41</v>
       </c>
       <c r="N14" s="7">
-        <v>36689</v>
+        <v>36760</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>82</v>
@@ -1393,7 +1393,7 @@
         <v>55</v>
       </c>
       <c r="D15" s="7">
-        <v>52595</v>
+        <v>47693</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1408,7 +1408,7 @@
         <v>92</v>
       </c>
       <c r="I15" s="7">
-        <v>72592</v>
+        <v>66321</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1423,7 +1423,7 @@
         <v>147</v>
       </c>
       <c r="N15" s="7">
-        <v>125187</v>
+        <v>114014</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
